--- a/Utils/data.xlsx
+++ b/Utils/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anujsewani\eclipse-workspace\SeleniumExitTest\Utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D30518-081A-4907-80CD-F3E2551FF204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CD61BB-5F15-403B-965D-4CF39F83B4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="779" xr2:uid="{57D31B6C-5271-4BC7-9BCF-9A3C8BE0878B}"/>
   </bookViews>
@@ -204,10 +204,10 @@
     <t>whenUserClickLogoutButton</t>
   </si>
   <si>
-    <t>9461164813</t>
-  </si>
-  <si>
     <t>akash</t>
+  </si>
+  <si>
+    <t>9461164814</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -674,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>11</v>
@@ -703,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
